--- a/biology/Zoologie/Dunnart_à_ventre_gris/Dunnart_à_ventre_gris.xlsx
+++ b/biology/Zoologie/Dunnart_à_ventre_gris/Dunnart_à_ventre_gris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dunnart_%C3%A0_ventre_gris</t>
+          <t>Dunnart_à_ventre_gris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sminthopsis griseoventer
 Le Dunnart à ventre gris (Sminthopsis griseoventer) est une espèce de souris marsupiales qui a été décrite pour la première fois en 1984. Sa longueur totale est de 130 à 192 mm, dont 65 à 98 mm pour la tête et le corps et 65 à 95 mm pour la queue. L'oreille gris olive avec une longueur comprise entre 17 et 18 mm. La longueur du pied est de 16 à 17 mm et son poids va de 15 à 25 g.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dunnart_%C3%A0_ventre_gris</t>
+          <t>Dunnart_à_ventre_gris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans les régions côtières du Sud-Ouest de l'Australie-Occidentale et dans les régions voisines depuis Gairdner Plages jusqu'au cap Aride, son habitat s'étendant rarement jusqu'à 100 km à l'intérieur des côtes. Une population a été découverte en décembre 2003 en Australie-Méridionale au cours d'une enquête du ministère de l'Environnement sur le patrimoine biologique  de la péninsule d'Eyre. Son habitat comprend des forêts avec sous-bois, des bois, des zones de marécages et des landes. Aucune sous-espèce n'a été identifiée.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dunnart_%C3%A0_ventre_gris</t>
+          <t>Dunnart_à_ventre_gris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (10 mars 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (10 mars 2021) :
 sous-espèce Sminthopsis griseoventer boullangerensis Crowther, Dickman &amp; Lynam, 1999
 sous-espèce Sminthopsis griseoventer griseoventer Kitchener, Stoddart &amp; Henry, 1984</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dunnart_%C3%A0_ventre_gris</t>
+          <t>Dunnart_à_ventre_gris</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Organisation sociale et reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce nocturne qui habite dans les feuilles mortes et les terriers. Les petits sont élevés dans un nid sous-terre de quelques centimètres de diamètre, avec les petits naissant en août sur l'île de Boullanger et en octobre ailleurs. Il y a une portée par an.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dunnart_%C3%A0_ventre_gris</t>
+          <t>Dunnart_à_ventre_gris</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un marsupial nocturne omnivore qui se nourrit d'insectes, de petits mammifères, de reptiles amphibiens ainsi que de fruits tendres.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dunnart_%C3%A0_ventre_gris</t>
+          <t>Dunnart_à_ventre_gris</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, du latin griseus, « gris », et venter, « ventre », lui a été donné en référence à sa livrée[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, du latin griseus, « gris », et venter, « ventre », lui a été donné en référence à sa livrée.
 </t>
         </is>
       </c>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dunnart_%C3%A0_ventre_gris</t>
+          <t>Dunnart_à_ventre_gris</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,7 +690,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) D. J. Kitchener, J. Stoddart et J. Henry, « A taxonomic revision of the Sminthopsis murina complex (Marsupialia, Dasyuridae) in Australia, including descriptions of four new species », Records of the Western Australian Museum, Western Australian Museum, vol. 11,‎ 1984, p. 201-247 (ISSN 0312-3162, lire en ligne)</t>
         </is>
